--- a/assignments/assign1/params_assign1.xlsx
+++ b/assignments/assign1/params_assign1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/william_russell_mcgill_ca/Documents/Projects/epib-676/assignments/assign1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/william_russell_mcgill_ca/Documents/Teaching/epib-678/assignments/assign1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{2C51997A-C534-8C4D-BD22-5FD55DB9965D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37956222-2519-9745-B050-24C319354385}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{2C51997A-C534-8C4D-BD22-5FD55DB9965D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{831C3307-3279-C84F-A531-AEE7BB1DBB08}"/>
   <bookViews>
     <workbookView xWindow="-34240" yWindow="-1160" windowWidth="28800" windowHeight="17500" xr2:uid="{E22EE68E-8329-254E-8C9B-ADF46AFACE72}"/>
   </bookViews>
@@ -151,12 +151,6 @@
     <t>p_OTSc_rpt_IR</t>
   </si>
   <si>
-    <t>Continued bleding after an initial EGD using OTSc</t>
-  </si>
-  <si>
-    <t>Continued bleding after an initial EGD using standard therapy clip</t>
-  </si>
-  <si>
     <t>Cost of standard therapy clip</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
   </si>
   <si>
     <t>QALYs experienced in one-year period if two EGDs and an IR procedure needed (loss of 3.65 quality-adjusted life days)</t>
+  </si>
+  <si>
+    <t>Continued bleeding after an initial EGD using standard therapy clip</t>
+  </si>
+  <si>
+    <t>Continued bleeding after an initial EGD using OTSc</t>
   </si>
 </sst>
 </file>
@@ -370,9 +370,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -410,7 +410,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -516,7 +516,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -658,7 +658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,7 +669,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4">
         <f>0.11</f>
@@ -731,7 +731,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D3" s="6">
         <f>0.053</f>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="8">
         <v>0.57599999999999996</v>
@@ -772,7 +772,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6">
         <v>0.152</v>
@@ -809,10 +809,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="15">
         <v>174</v>
@@ -829,10 +829,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="15">
         <v>438</v>
@@ -926,13 +926,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="18">
         <v>0.98699999999999999</v>
@@ -946,13 +946,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="18">
         <v>0.98399999999999999</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="18">
         <v>0.97399999999999998</v>
